--- a/data-raw/tidy-brand.names.xlsx
+++ b/data-raw/tidy-brand.names.xlsx
@@ -29,15 +29,984 @@
     <t xml:space="preserve">7 up</t>
   </si>
   <si>
+    <t xml:space="preserve">AVON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolutely Perfect Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activo Vite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Wheys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpecin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing Skincare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amina's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appletiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appletizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquartz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur Ford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astrol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aurobindo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-Well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-sanitized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrs Pharmaceutical inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhubezi Herbals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BioClaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Chick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Diamond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Body Créme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bostik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bramley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Braun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brookes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brunel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buckets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caivil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caltex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambridge food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cappy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caro Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castrol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cetaphil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Mart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Value Sun Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Value Washing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checker's House Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cipla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean Cough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clicks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clifton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca Cola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocopulp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Containers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal Valley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Créche Guard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dairibord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dairy Maid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dairy Moo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dairymaid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daksprings dairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daly's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark and lovely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dettol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dew Whole Salers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diamond Perlé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dolly Varden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drink Prepared Still</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy Waves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elvin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enervite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra Clair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairfield Dairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Famous Brands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fanta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Lovers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh Stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gandour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garlic Man</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garnier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gentle Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glaceau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go Nuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Stuf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gorima's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grapetiser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O amangi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hall's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handy Andy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hercules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hetero Drugs South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IJUBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ideal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indlovu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingonyama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingram's (The Skin Doctor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inkomazi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inkosazona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inyongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isoplus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabulani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnson's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumbo Brands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just for baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karou Charou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kepro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingsley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klenz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knorr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kwik Shine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lance Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lancewood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large Gas Containers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenphéric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenthéric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liqui Fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Listerine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucozade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.C.O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MPACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Macleods Pharmac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mama's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marola Collections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercedes Benz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mist alba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitchum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moon Drops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More Jam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Sheen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muscle Tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muscletech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mylan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIVEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nasca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Spring Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature's Valley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natures Buzz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natures Premium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nawaaz Manjra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neolife Shake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nestlé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newden Powa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-Gamela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nongxamela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NutriDay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBC Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh So Heavenly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omega Chem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One-Juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opulence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange Grove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIEMAN'S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pepsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect White</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal Touch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharma Chem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phipp's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pick n Pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plascon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playboy/Playgirl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PnP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pot 'o' Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powerade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prisna Aqua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prtiam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pure Refresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purified Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qina Siwasho Senali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Shop &amp; Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rainbow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajmeers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refreshhh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revlon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rider's Vodka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riders Vodka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rieter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ritebrand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robertsons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rondo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sadie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safripol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saharaveg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sakuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save Mor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Save Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savlon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schweppes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheer elegance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shower to Shower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple Truth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sip Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sir Fruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skin Clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smartshake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smirnoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonke Pharmac.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spar-Letta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splush Supreme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring Meadow Dairy Farm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sta-Sof-Fro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still Thirsti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still water, it's not made in China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoney</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stylin Dredz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stylin'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subaru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sukuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sun Wild Coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sundale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunfoil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunglo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunlight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunlight Baby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunshine D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunstar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supreme Foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supreme foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swankie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swiss Yoghurt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tal: The professional choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tim Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tin roof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toyota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tropika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulip Int. Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twizza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubuhle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultra Lube</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umkhucului</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umkucululi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnID Medical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnID Oils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UnID Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valpré Spring Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitaforce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volutrip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WC Ente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are AQUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wimpy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wokali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woolworths Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUM YUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yogi Sip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yum Fun</t>
+  </si>
+  <si>
     <t xml:space="preserve">a h g</t>
   </si>
   <si>
+    <t xml:space="preserve">aQuellé</t>
+  </si>
+  <si>
     <t xml:space="preserve">abbvie</t>
   </si>
   <si>
-    <t xml:space="preserve">Absolutely Perfect Water</t>
-  </si>
-  <si>
     <t xml:space="preserve">ace</t>
   </si>
   <si>
@@ -47,9 +1016,6 @@
     <t xml:space="preserve">activo vite</t>
   </si>
   <si>
-    <t xml:space="preserve">Activo Vite</t>
-  </si>
-  <si>
     <t xml:space="preserve">ai spring water</t>
   </si>
   <si>
@@ -62,78 +1028,42 @@
     <t xml:space="preserve">alcolin</t>
   </si>
   <si>
-    <t xml:space="preserve">Aleo</t>
-  </si>
-  <si>
     <t xml:space="preserve">all clear</t>
   </si>
   <si>
     <t xml:space="preserve">all gold</t>
   </si>
   <si>
-    <t xml:space="preserve">All gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All Wheys</t>
-  </si>
-  <si>
     <t xml:space="preserve">alpecin</t>
   </si>
   <si>
-    <t xml:space="preserve">Alpecin</t>
-  </si>
-  <si>
     <t xml:space="preserve">alpro</t>
   </si>
   <si>
-    <t xml:space="preserve">Aluvia</t>
-  </si>
-  <si>
     <t xml:space="preserve">ama sipsip</t>
   </si>
   <si>
-    <t xml:space="preserve">Amasi</t>
-  </si>
-  <si>
     <t xml:space="preserve">amazing skin care</t>
   </si>
   <si>
-    <t xml:space="preserve">Amazing Skincare</t>
-  </si>
-  <si>
     <t xml:space="preserve">american parlor</t>
   </si>
   <si>
-    <t xml:space="preserve">Amina's</t>
-  </si>
-  <si>
     <t xml:space="preserve">amla oil</t>
   </si>
   <si>
     <t xml:space="preserve">anti freeza and summer coolant</t>
   </si>
   <si>
-    <t xml:space="preserve">Appletiser</t>
-  </si>
-  <si>
     <t xml:space="preserve">appletizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Appletizer</t>
-  </si>
-  <si>
     <t xml:space="preserve">aqua now</t>
   </si>
   <si>
     <t xml:space="preserve">aquanow</t>
   </si>
   <si>
-    <t xml:space="preserve">Aquartz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aQuellé</t>
-  </si>
-  <si>
     <t xml:space="preserve">arctic</t>
   </si>
   <si>
@@ -143,75 +1073,36 @@
     <t xml:space="preserve">arthur ford</t>
   </si>
   <si>
-    <t xml:space="preserve">Arthur Ford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astrol</t>
-  </si>
-  <si>
     <t xml:space="preserve">aunt caroline</t>
   </si>
   <si>
     <t xml:space="preserve">aurobindo</t>
   </si>
   <si>
-    <t xml:space="preserve">Aurobindo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austral</t>
-  </si>
-  <si>
     <t xml:space="preserve">avon</t>
   </si>
   <si>
-    <t xml:space="preserve">Avon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVON</t>
-  </si>
-  <si>
     <t xml:space="preserve">axe</t>
   </si>
   <si>
     <t xml:space="preserve">azore</t>
   </si>
   <si>
-    <t xml:space="preserve">B-sanitized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B-Well</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrs Pharmaceutical inc.</t>
-  </si>
-  <si>
     <t xml:space="preserve">bco</t>
   </si>
   <si>
     <t xml:space="preserve">beauty factory</t>
   </si>
   <si>
+    <t xml:space="preserve">benga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bennetts</t>
+  </si>
+  <si>
     <t xml:space="preserve">bené</t>
   </si>
   <si>
-    <t xml:space="preserve">benga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bennetts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhubezi Herbals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Big Reg</t>
-  </si>
-  <si>
     <t xml:space="preserve">bio-clear</t>
   </si>
   <si>
@@ -224,15 +1115,9 @@
     <t xml:space="preserve">bioclaire</t>
   </si>
   <si>
-    <t xml:space="preserve">BioClaire</t>
-  </si>
-  <si>
     <t xml:space="preserve">biogen</t>
   </si>
   <si>
-    <t xml:space="preserve">Biogen</t>
-  </si>
-  <si>
     <t xml:space="preserve">biotech</t>
   </si>
   <si>
@@ -242,24 +1127,15 @@
     <t xml:space="preserve">black chick</t>
   </si>
   <si>
-    <t xml:space="preserve">Black Chick</t>
-  </si>
-  <si>
     <t xml:space="preserve">black velvet</t>
   </si>
   <si>
     <t xml:space="preserve">blossom</t>
   </si>
   <si>
-    <t xml:space="preserve">Blue death</t>
-  </si>
-  <si>
     <t xml:space="preserve">blue diamond</t>
   </si>
   <si>
-    <t xml:space="preserve">Blue Diamond</t>
-  </si>
-  <si>
     <t xml:space="preserve">blue dirt</t>
   </si>
   <si>
@@ -278,69 +1154,30 @@
     <t xml:space="preserve">body creme</t>
   </si>
   <si>
-    <t xml:space="preserve">Body Créme</t>
-  </si>
-  <si>
     <t xml:space="preserve">bonaqua</t>
   </si>
   <si>
     <t xml:space="preserve">bonnita</t>
   </si>
   <si>
-    <t xml:space="preserve">Bostik</t>
-  </si>
-  <si>
     <t xml:space="preserve">boxer</t>
   </si>
   <si>
     <t xml:space="preserve">bramley</t>
   </si>
   <si>
-    <t xml:space="preserve">Bramley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Braun</t>
-  </si>
-  <si>
     <t xml:space="preserve">brookes</t>
   </si>
   <si>
-    <t xml:space="preserve">Brookes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brunel</t>
-  </si>
-  <si>
     <t xml:space="preserve">brut</t>
   </si>
   <si>
-    <t xml:space="preserve">Brut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buckets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caivil</t>
-  </si>
-  <si>
     <t xml:space="preserve">caltex</t>
   </si>
   <si>
-    <t xml:space="preserve">Caltex</t>
-  </si>
-  <si>
     <t xml:space="preserve">cambridge food</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambridge food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cappy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caro Light</t>
-  </si>
-  <si>
     <t xml:space="preserve">carotone</t>
   </si>
   <si>
@@ -350,42 +1187,18 @@
     <t xml:space="preserve">castrol</t>
   </si>
   <si>
-    <t xml:space="preserve">Castrol</t>
-  </si>
-  <si>
     <t xml:space="preserve">caxi</t>
   </si>
   <si>
     <t xml:space="preserve">cerebos</t>
   </si>
   <si>
-    <t xml:space="preserve">Ceres</t>
-  </si>
-  <si>
     <t xml:space="preserve">cetaphil</t>
   </si>
   <si>
-    <t xml:space="preserve">Cetaphil</t>
-  </si>
-  <si>
     <t xml:space="preserve">champion</t>
   </si>
   <si>
-    <t xml:space="preserve">Check Mart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Value Sun Oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check Value Washing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Checker's House Brand</t>
-  </si>
-  <si>
     <t xml:space="preserve">chef's secret</t>
   </si>
   <si>
@@ -398,42 +1211,18 @@
     <t xml:space="preserve">cipla</t>
   </si>
   <si>
-    <t xml:space="preserve">Cipla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clean Cough</t>
-  </si>
-  <si>
     <t xml:space="preserve">clear cough</t>
   </si>
   <si>
-    <t xml:space="preserve">Clere</t>
-  </si>
-  <si>
     <t xml:space="preserve">clicks</t>
   </si>
   <si>
-    <t xml:space="preserve">Clicks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clifton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca Cola</t>
-  </si>
-  <si>
     <t xml:space="preserve">coco pulp</t>
   </si>
   <si>
     <t xml:space="preserve">cocopulp</t>
   </si>
   <si>
-    <t xml:space="preserve">Cocopulp</t>
-  </si>
-  <si>
     <t xml:space="preserve">colad</t>
   </si>
   <si>
@@ -443,30 +1232,9 @@
     <t xml:space="preserve">comfort</t>
   </si>
   <si>
-    <t xml:space="preserve">Comfort</t>
-  </si>
-  <si>
     <t xml:space="preserve">condense</t>
   </si>
   <si>
-    <t xml:space="preserve">Containers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cooee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Créche Guard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal Valley</t>
-  </si>
-  <si>
     <t xml:space="preserve">culinary fusion</t>
   </si>
   <si>
@@ -476,45 +1244,24 @@
     <t xml:space="preserve">dairi board</t>
   </si>
   <si>
-    <t xml:space="preserve">Dairibord</t>
-  </si>
-  <si>
     <t xml:space="preserve">dairy day honey dew</t>
   </si>
   <si>
     <t xml:space="preserve">dairy maid</t>
   </si>
   <si>
-    <t xml:space="preserve">Dairy Maid</t>
-  </si>
-  <si>
     <t xml:space="preserve">dairy moo</t>
   </si>
   <si>
-    <t xml:space="preserve">Dairy Moo</t>
-  </si>
-  <si>
     <t xml:space="preserve">dairybelle</t>
   </si>
   <si>
-    <t xml:space="preserve">Dairymaid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daksprings dairy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daly's</t>
-  </si>
-  <si>
     <t xml:space="preserve">damatol</t>
   </si>
   <si>
     <t xml:space="preserve">dark and lovely</t>
   </si>
   <si>
-    <t xml:space="preserve">Dark and lovely</t>
-  </si>
-  <si>
     <t xml:space="preserve">dawn</t>
   </si>
   <si>
@@ -527,51 +1274,27 @@
     <t xml:space="preserve">denmar</t>
   </si>
   <si>
-    <t xml:space="preserve">DEO</t>
-  </si>
-  <si>
     <t xml:space="preserve">dermabac</t>
   </si>
   <si>
-    <t xml:space="preserve">Dettol</t>
-  </si>
-  <si>
     <t xml:space="preserve">dew drop</t>
   </si>
   <si>
-    <t xml:space="preserve">Dew Whole Salers</t>
-  </si>
-  <si>
     <t xml:space="preserve">dex natural</t>
   </si>
   <si>
     <t xml:space="preserve">diamond guard</t>
   </si>
   <si>
-    <t xml:space="preserve">Diamond Perlé</t>
-  </si>
-  <si>
     <t xml:space="preserve">divine bodies</t>
   </si>
   <si>
     <t xml:space="preserve">divine juice</t>
   </si>
   <si>
-    <t xml:space="preserve">Dolly Varden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestos</t>
-  </si>
-  <si>
     <t xml:space="preserve">double velvet</t>
   </si>
   <si>
-    <t xml:space="preserve">Dove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drink Prepared Still</t>
-  </si>
-  <si>
     <t xml:space="preserve">due care</t>
   </si>
   <si>
@@ -599,33 +1322,18 @@
     <t xml:space="preserve">eastern highlands</t>
   </si>
   <si>
-    <t xml:space="preserve">Easy Waves</t>
-  </si>
-  <si>
     <t xml:space="preserve">effer flu</t>
   </si>
   <si>
     <t xml:space="preserve">ek still water</t>
   </si>
   <si>
-    <t xml:space="preserve">Elvin</t>
-  </si>
-  <si>
     <t xml:space="preserve">enerG</t>
   </si>
   <si>
-    <t xml:space="preserve">Energade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enervite</t>
-  </si>
-  <si>
     <t xml:space="preserve">engen</t>
   </si>
   <si>
-    <t xml:space="preserve">Engen</t>
-  </si>
-  <si>
     <t xml:space="preserve">enzo oils</t>
   </si>
   <si>
@@ -668,39 +1376,21 @@
     <t xml:space="preserve">excella</t>
   </si>
   <si>
-    <t xml:space="preserve">Excella</t>
-  </si>
-  <si>
     <t xml:space="preserve">exclamation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extra Clair</t>
-  </si>
-  <si>
     <t xml:space="preserve">fair value</t>
   </si>
   <si>
     <t xml:space="preserve">fairfield dairy</t>
   </si>
   <si>
-    <t xml:space="preserve">Fairfield Dairy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Famous Brands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fanta</t>
-  </si>
-  <si>
     <t xml:space="preserve">far end dairy</t>
   </si>
   <si>
     <t xml:space="preserve">farm gold</t>
   </si>
   <si>
-    <t xml:space="preserve">Farm Gold</t>
-  </si>
-  <si>
     <t xml:space="preserve">farm house</t>
   </si>
   <si>
@@ -710,18 +1400,12 @@
     <t xml:space="preserve">flava</t>
   </si>
   <si>
-    <t xml:space="preserve">Flora</t>
-  </si>
-  <si>
     <t xml:space="preserve">food lover's</t>
   </si>
   <si>
     <t xml:space="preserve">food lovers</t>
   </si>
   <si>
-    <t xml:space="preserve">Food Lovers</t>
-  </si>
-  <si>
     <t xml:space="preserve">fossan</t>
   </si>
   <si>
@@ -734,9 +1418,6 @@
     <t xml:space="preserve">fresh stop</t>
   </si>
   <si>
-    <t xml:space="preserve">Fresh Stop</t>
-  </si>
-  <si>
     <t xml:space="preserve">fresobin</t>
   </si>
   <si>
@@ -752,12 +1433,6 @@
     <t xml:space="preserve">fusion</t>
   </si>
   <si>
-    <t xml:space="preserve">Fusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gandour</t>
-  </si>
-  <si>
     <t xml:space="preserve">gangotri gangajal</t>
   </si>
   <si>
@@ -767,39 +1442,21 @@
     <t xml:space="preserve">garlic man</t>
   </si>
   <si>
-    <t xml:space="preserve">Garlic Man</t>
-  </si>
-  <si>
     <t xml:space="preserve">garlic mom</t>
   </si>
   <si>
     <t xml:space="preserve">garnier</t>
   </si>
   <si>
-    <t xml:space="preserve">Garnier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gentle Magic</t>
-  </si>
-  <si>
     <t xml:space="preserve">gill</t>
   </si>
   <si>
     <t xml:space="preserve">glaceau</t>
   </si>
   <si>
-    <t xml:space="preserve">Glaceau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLLD</t>
-  </si>
-  <si>
     <t xml:space="preserve">glyco lenan</t>
   </si>
   <si>
-    <t xml:space="preserve">Go Nuts</t>
-  </si>
-  <si>
     <t xml:space="preserve">gold sports nutrition</t>
   </si>
   <si>
@@ -815,15 +1472,9 @@
     <t xml:space="preserve">goo stuff</t>
   </si>
   <si>
-    <t xml:space="preserve">Good Stuf</t>
-  </si>
-  <si>
     <t xml:space="preserve">goody</t>
   </si>
   <si>
-    <t xml:space="preserve">Gorima's</t>
-  </si>
-  <si>
     <t xml:space="preserve">gorima's magi</t>
   </si>
   <si>
@@ -836,9 +1487,6 @@
     <t xml:space="preserve">granulart</t>
   </si>
   <si>
-    <t xml:space="preserve">Grapetiser</t>
-  </si>
-  <si>
     <t xml:space="preserve">gritx</t>
   </si>
   <si>
@@ -848,9 +1496,6 @@
     <t xml:space="preserve">h20</t>
   </si>
   <si>
-    <t xml:space="preserve">H2O amangi</t>
-  </si>
-  <si>
     <t xml:space="preserve">hair glo</t>
   </si>
   <si>
@@ -860,33 +1505,15 @@
     <t xml:space="preserve">halios</t>
   </si>
   <si>
-    <t xml:space="preserve">Hall's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Handy Andy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Happy family</t>
-  </si>
-  <si>
     <t xml:space="preserve">head n shoulders</t>
   </si>
   <si>
-    <t xml:space="preserve">Helios</t>
-  </si>
-  <si>
     <t xml:space="preserve">hercules</t>
   </si>
   <si>
-    <t xml:space="preserve">Hercules</t>
-  </si>
-  <si>
     <t xml:space="preserve">hetero drugs south africa</t>
   </si>
   <si>
-    <t xml:space="preserve">Hetero Drugs South Africa</t>
-  </si>
-  <si>
     <t xml:space="preserve">heterodrugs south africa</t>
   </si>
   <si>
@@ -902,87 +1529,42 @@
     <t xml:space="preserve">hth</t>
   </si>
   <si>
-    <t xml:space="preserve">HTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hunger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydro</t>
-  </si>
-  <si>
     <t xml:space="preserve">iceboletu</t>
   </si>
   <si>
     <t xml:space="preserve">ideal</t>
   </si>
   <si>
-    <t xml:space="preserve">Ideal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IJUBA</t>
-  </si>
-  <si>
     <t xml:space="preserve">imana</t>
   </si>
   <si>
     <t xml:space="preserve">imari</t>
   </si>
   <si>
-    <t xml:space="preserve">Imari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMC</t>
-  </si>
-  <si>
     <t xml:space="preserve">immune booster</t>
   </si>
   <si>
-    <t xml:space="preserve">IMPO</t>
-  </si>
-  <si>
     <t xml:space="preserve">indezi rivers</t>
   </si>
   <si>
     <t xml:space="preserve">indlovo</t>
   </si>
   <si>
-    <t xml:space="preserve">Indlovu</t>
-  </si>
-  <si>
     <t xml:space="preserve">inecto</t>
   </si>
   <si>
-    <t xml:space="preserve">Inecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingonyama</t>
-  </si>
-  <si>
     <t xml:space="preserve">ingqayizivele</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingram's (The Skin Doctor)</t>
-  </si>
-  <si>
     <t xml:space="preserve">initial</t>
   </si>
   <si>
-    <t xml:space="preserve">Inkomazi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inkosazona</t>
-  </si>
-  <si>
     <t xml:space="preserve">inova</t>
   </si>
   <si>
     <t xml:space="preserve">inveroche</t>
   </si>
   <si>
-    <t xml:space="preserve">Inyongo</t>
-  </si>
-  <si>
     <t xml:space="preserve">inyonzo</t>
   </si>
   <si>
@@ -995,36 +1577,24 @@
     <t xml:space="preserve">isoplus</t>
   </si>
   <si>
-    <t xml:space="preserve">Isoplus</t>
-  </si>
-  <si>
     <t xml:space="preserve">it's not made in china</t>
   </si>
   <si>
     <t xml:space="preserve">jabu stone</t>
   </si>
   <si>
-    <t xml:space="preserve">Jabulani</t>
-  </si>
-  <si>
     <t xml:space="preserve">jersey cow</t>
   </si>
   <si>
     <t xml:space="preserve">jik</t>
   </si>
   <si>
-    <t xml:space="preserve">Jik</t>
-  </si>
-  <si>
     <t xml:space="preserve">jills bleach</t>
   </si>
   <si>
     <t xml:space="preserve">johnson</t>
   </si>
   <si>
-    <t xml:space="preserve">Johnson's</t>
-  </si>
-  <si>
     <t xml:space="preserve">johnsons</t>
   </si>
   <si>
@@ -1037,24 +1607,15 @@
     <t xml:space="preserve">jumbo</t>
   </si>
   <si>
-    <t xml:space="preserve">Jumbo Brands</t>
-  </si>
-  <si>
     <t xml:space="preserve">jungle</t>
   </si>
   <si>
     <t xml:space="preserve">just</t>
   </si>
   <si>
-    <t xml:space="preserve">Just</t>
-  </si>
-  <si>
     <t xml:space="preserve">just food</t>
   </si>
   <si>
-    <t xml:space="preserve">Just for baby</t>
-  </si>
-  <si>
     <t xml:space="preserve">just for baby's</t>
   </si>
   <si>
@@ -1079,96 +1640,51 @@
     <t xml:space="preserve">kara nichka's</t>
   </si>
   <si>
-    <t xml:space="preserve">Karou Charou</t>
-  </si>
-  <si>
     <t xml:space="preserve">kay titan</t>
   </si>
   <si>
     <t xml:space="preserve">kepro</t>
   </si>
   <si>
-    <t xml:space="preserve">Kepro</t>
-  </si>
-  <si>
     <t xml:space="preserve">kfc</t>
   </si>
   <si>
-    <t xml:space="preserve">KFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King's</t>
-  </si>
-  <si>
     <t xml:space="preserve">kingsley</t>
   </si>
   <si>
-    <t xml:space="preserve">Kingsley</t>
-  </si>
-  <si>
     <t xml:space="preserve">klenz</t>
   </si>
   <si>
-    <t xml:space="preserve">Klenz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knorr</t>
-  </si>
-  <si>
     <t xml:space="preserve">kosi bay water</t>
   </si>
   <si>
-    <t xml:space="preserve">Kwik Shine</t>
-  </si>
-  <si>
     <t xml:space="preserve">l'oréal</t>
   </si>
   <si>
     <t xml:space="preserve">la italiana</t>
   </si>
   <si>
-    <t xml:space="preserve">Lance Wood</t>
-  </si>
-  <si>
     <t xml:space="preserve">lancewood</t>
   </si>
   <si>
-    <t xml:space="preserve">Lancewood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Large Gas Containers</t>
-  </si>
-  <si>
     <t xml:space="preserve">lenovo</t>
   </si>
   <si>
-    <t xml:space="preserve">Lenphéric</t>
-  </si>
-  <si>
     <t xml:space="preserve">lentheric</t>
   </si>
   <si>
-    <t xml:space="preserve">Lenthéric</t>
-  </si>
-  <si>
     <t xml:space="preserve">lifebuoy</t>
   </si>
   <si>
     <t xml:space="preserve">lipton</t>
   </si>
   <si>
-    <t xml:space="preserve">Liqui Fruit</t>
-  </si>
-  <si>
     <t xml:space="preserve">liqui maly</t>
   </si>
   <si>
     <t xml:space="preserve">liquifruit</t>
   </si>
   <si>
-    <t xml:space="preserve">Listerine</t>
-  </si>
-  <si>
     <t xml:space="preserve">livewell</t>
   </si>
   <si>
@@ -1184,36 +1700,21 @@
     <t xml:space="preserve">lucozade</t>
   </si>
   <si>
-    <t xml:space="preserve">Lucozade</t>
-  </si>
-  <si>
     <t xml:space="preserve">lux</t>
   </si>
   <si>
     <t xml:space="preserve">m natural spring water</t>
   </si>
   <si>
-    <t xml:space="preserve">M.C.O</t>
-  </si>
-  <si>
     <t xml:space="preserve">mac donalds</t>
   </si>
   <si>
-    <t xml:space="preserve">Macleods Pharmac.</t>
-  </si>
-  <si>
     <t xml:space="preserve">madu magdeu</t>
   </si>
   <si>
     <t xml:space="preserve">mama's</t>
   </si>
   <si>
-    <t xml:space="preserve">Mama's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marola Collections</t>
-  </si>
-  <si>
     <t xml:space="preserve">marula</t>
   </si>
   <si>
@@ -1226,9 +1727,6 @@
     <t xml:space="preserve">maz</t>
   </si>
   <si>
-    <t xml:space="preserve">MAZ</t>
-  </si>
-  <si>
     <t xml:space="preserve">mcdonalds</t>
   </si>
   <si>
@@ -1250,9 +1748,6 @@
     <t xml:space="preserve">mentos</t>
   </si>
   <si>
-    <t xml:space="preserve">Mercedes Benz</t>
-  </si>
-  <si>
     <t xml:space="preserve">merida</t>
   </si>
   <si>
@@ -1268,12 +1763,6 @@
     <t xml:space="preserve">miracle mom</t>
   </si>
   <si>
-    <t xml:space="preserve">Mist alba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitchum</t>
-  </si>
-  <si>
     <t xml:space="preserve">mitchum invisible</t>
   </si>
   <si>
@@ -1283,24 +1772,12 @@
     <t xml:space="preserve">mom</t>
   </si>
   <si>
-    <t xml:space="preserve">MOM</t>
-  </si>
-  <si>
     <t xml:space="preserve">mondi</t>
   </si>
   <si>
-    <t xml:space="preserve">Moon Drops</t>
-  </si>
-  <si>
     <t xml:space="preserve">more jam</t>
   </si>
   <si>
-    <t xml:space="preserve">More Jam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moss</t>
-  </si>
-  <si>
     <t xml:space="preserve">motions</t>
   </si>
   <si>
@@ -1310,9 +1787,6 @@
     <t xml:space="preserve">mountain view</t>
   </si>
   <si>
-    <t xml:space="preserve">MPACT</t>
-  </si>
-  <si>
     <t xml:space="preserve">mr juice</t>
   </si>
   <si>
@@ -1322,120 +1796,54 @@
     <t xml:space="preserve">mr. Orange</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. Orange</t>
-  </si>
-  <si>
     <t xml:space="preserve">mr. Sheen</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. Sheen</t>
-  </si>
-  <si>
     <t xml:space="preserve">mrs. H.s. bocls</t>
   </si>
   <si>
-    <t xml:space="preserve">Muscle Tech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muscletech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mylan</t>
-  </si>
-  <si>
     <t xml:space="preserve">mystify</t>
   </si>
   <si>
-    <t xml:space="preserve">Nasca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natural Spring Water</t>
-  </si>
-  <si>
     <t xml:space="preserve">nature nourishment</t>
   </si>
   <si>
+    <t xml:space="preserve">nature's buzz</t>
+  </si>
+  <si>
     <t xml:space="preserve">nature-e</t>
   </si>
   <si>
-    <t xml:space="preserve">nature's buzz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature's Valley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natures Buzz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natures Premium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nawaaz Manjra</t>
-  </si>
-  <si>
     <t xml:space="preserve">nd</t>
   </si>
   <si>
-    <t xml:space="preserve">Neolife Shake</t>
-  </si>
-  <si>
     <t xml:space="preserve">nestle</t>
   </si>
   <si>
-    <t xml:space="preserve">Nestlé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newden Powa</t>
-  </si>
-  <si>
     <t xml:space="preserve">nike</t>
   </si>
   <si>
-    <t xml:space="preserve">NIVEA</t>
-  </si>
-  <si>
     <t xml:space="preserve">no name</t>
   </si>
   <si>
     <t xml:space="preserve">noir's</t>
   </si>
   <si>
-    <t xml:space="preserve">NOLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-Gamela</t>
-  </si>
-  <si>
     <t xml:space="preserve">noname</t>
   </si>
   <si>
-    <t xml:space="preserve">Nongxamela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTSU</t>
-  </si>
-  <si>
     <t xml:space="preserve">nu-ware</t>
   </si>
   <si>
     <t xml:space="preserve">number 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Number 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">number1</t>
   </si>
   <si>
     <t xml:space="preserve">nutri rich</t>
   </si>
   <si>
-    <t xml:space="preserve">NutriDay</t>
-  </si>
-  <si>
     <t xml:space="preserve">nutritionals nature science</t>
   </si>
   <si>
@@ -1451,60 +1859,24 @@
     <t xml:space="preserve">oasis</t>
   </si>
   <si>
-    <t xml:space="preserve">OBC Oil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oh So Heavenly</t>
-  </si>
-  <si>
     <t xml:space="preserve">oh so tasty</t>
   </si>
   <si>
-    <t xml:space="preserve">OI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ola</t>
-  </si>
-  <si>
     <t xml:space="preserve">olé</t>
   </si>
   <si>
-    <t xml:space="preserve">Omega Chem</t>
-  </si>
-  <si>
     <t xml:space="preserve">ominas</t>
   </si>
   <si>
     <t xml:space="preserve">omni gold</t>
   </si>
   <si>
-    <t xml:space="preserve">Omo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One-Juice</t>
-  </si>
-  <si>
     <t xml:space="preserve">opuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Opulence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orange Grove</t>
-  </si>
-  <si>
     <t xml:space="preserve">organics</t>
   </si>
   <si>
-    <t xml:space="preserve">OROS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTHER</t>
-  </si>
-  <si>
     <t xml:space="preserve">ovaltine</t>
   </si>
   <si>
@@ -1529,9 +1901,6 @@
     <t xml:space="preserve">parmalat</t>
   </si>
   <si>
-    <t xml:space="preserve">Pepsi</t>
-  </si>
-  <si>
     <t xml:space="preserve">perfect</t>
   </si>
   <si>
@@ -1541,87 +1910,39 @@
     <t xml:space="preserve">perfect water</t>
   </si>
   <si>
-    <t xml:space="preserve">Perfect White</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal Touch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PET</t>
-  </si>
-  <si>
     <t xml:space="preserve">petrol</t>
   </si>
   <si>
     <t xml:space="preserve">petronas</t>
   </si>
   <si>
-    <t xml:space="preserve">Pharma Chem</t>
-  </si>
-  <si>
     <t xml:space="preserve">pharma pac</t>
   </si>
   <si>
-    <t xml:space="preserve">Phipp's</t>
-  </si>
-  <si>
     <t xml:space="preserve">phytomed</t>
   </si>
   <si>
-    <t xml:space="preserve">Pick n Pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIEMAN'S</t>
-  </si>
-  <si>
     <t xml:space="preserve">pierre fabré</t>
   </si>
   <si>
-    <t xml:space="preserve">Plascon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Playboy/Playgirl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PnP</t>
-  </si>
-  <si>
     <t xml:space="preserve">polar</t>
   </si>
   <si>
-    <t xml:space="preserve">Polar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portia</t>
-  </si>
-  <si>
     <t xml:space="preserve">portia m</t>
   </si>
   <si>
-    <t xml:space="preserve">Pot 'o' Gold</t>
-  </si>
-  <si>
     <t xml:space="preserve">powa</t>
   </si>
   <si>
-    <t xml:space="preserve">Powa</t>
-  </si>
-  <si>
     <t xml:space="preserve">powa fix</t>
   </si>
   <si>
-    <t xml:space="preserve">Powerade</t>
-  </si>
-  <si>
     <t xml:space="preserve">president</t>
   </si>
   <si>
     <t xml:space="preserve">prisma</t>
   </si>
   <si>
-    <t xml:space="preserve">Prisna Aqua</t>
-  </si>
-  <si>
     <t xml:space="preserve">pristine</t>
   </si>
   <si>
@@ -1640,21 +1961,12 @@
     <t xml:space="preserve">prostar</t>
   </si>
   <si>
-    <t xml:space="preserve">Protect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prtiam</t>
-  </si>
-  <si>
     <t xml:space="preserve">pulvex</t>
   </si>
   <si>
     <t xml:space="preserve">pure refresh</t>
   </si>
   <si>
-    <t xml:space="preserve">Pure Refresh</t>
-  </si>
-  <si>
     <t xml:space="preserve">pure water</t>
   </si>
   <si>
@@ -1664,42 +1976,18 @@
     <t xml:space="preserve">purified water</t>
   </si>
   <si>
-    <t xml:space="preserve">Purified Water</t>
-  </si>
-  <si>
     <t xml:space="preserve">purle power</t>
   </si>
   <si>
     <t xml:space="preserve">purple</t>
   </si>
   <si>
-    <t xml:space="preserve">Qina Siwasho Senali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quality</t>
-  </si>
-  <si>
     <t xml:space="preserve">quick shop &amp; co</t>
   </si>
   <si>
-    <t xml:space="preserve">Quick Shop &amp; Co</t>
-  </si>
-  <si>
     <t xml:space="preserve">rainbow</t>
   </si>
   <si>
-    <t xml:space="preserve">Rainbow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rajmeers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rama</t>
-  </si>
-  <si>
     <t xml:space="preserve">rascals</t>
   </si>
   <si>
@@ -1715,9 +2003,6 @@
     <t xml:space="preserve">refreshhh</t>
   </si>
   <si>
-    <t xml:space="preserve">Refreshhh</t>
-  </si>
-  <si>
     <t xml:space="preserve">regal</t>
   </si>
   <si>
@@ -1733,45 +2018,21 @@
     <t xml:space="preserve">renew</t>
   </si>
   <si>
-    <t xml:space="preserve">Renew</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resmed</t>
-  </si>
-  <si>
     <t xml:space="preserve">restore</t>
   </si>
   <si>
-    <t xml:space="preserve">Restore</t>
-  </si>
-  <si>
     <t xml:space="preserve">revive</t>
   </si>
   <si>
     <t xml:space="preserve">revlon</t>
   </si>
   <si>
-    <t xml:space="preserve">Revlon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rider's Vodka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riders Vodka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rieter</t>
-  </si>
-  <si>
     <t xml:space="preserve">right on</t>
   </si>
   <si>
     <t xml:space="preserve">ritebrand</t>
   </si>
   <si>
-    <t xml:space="preserve">Ritebrand</t>
-  </si>
-  <si>
     <t xml:space="preserve">riva</t>
   </si>
   <si>
@@ -1784,12 +2045,6 @@
     <t xml:space="preserve">robertsons</t>
   </si>
   <si>
-    <t xml:space="preserve">Robertsons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rondo</t>
-  </si>
-  <si>
     <t xml:space="preserve">royale</t>
   </si>
   <si>
@@ -1802,9 +2057,6 @@
     <t xml:space="preserve">sadie</t>
   </si>
   <si>
-    <t xml:space="preserve">Sadie</t>
-  </si>
-  <si>
     <t xml:space="preserve">sadio</t>
   </si>
   <si>
@@ -1814,21 +2066,9 @@
     <t xml:space="preserve">safola</t>
   </si>
   <si>
-    <t xml:space="preserve">Safola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safripol</t>
-  </si>
-  <si>
     <t xml:space="preserve">sahara veg</t>
   </si>
   <si>
-    <t xml:space="preserve">Saharaveg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sakuma</t>
-  </si>
-  <si>
     <t xml:space="preserve">sanex</t>
   </si>
   <si>
@@ -1847,24 +2087,12 @@
     <t xml:space="preserve">save mor</t>
   </si>
   <si>
-    <t xml:space="preserve">Save Mor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Save Water</t>
-  </si>
-  <si>
     <t xml:space="preserve">savlon</t>
   </si>
   <si>
-    <t xml:space="preserve">Savlon</t>
-  </si>
-  <si>
     <t xml:space="preserve">scala</t>
   </si>
   <si>
-    <t xml:space="preserve">Schweppes</t>
-  </si>
-  <si>
     <t xml:space="preserve">security</t>
   </si>
   <si>
@@ -1874,60 +2102,30 @@
     <t xml:space="preserve">shalina</t>
   </si>
   <si>
-    <t xml:space="preserve">Sheer elegance</t>
-  </si>
-  <si>
     <t xml:space="preserve">shell</t>
   </si>
   <si>
-    <t xml:space="preserve">Shield</t>
-  </si>
-  <si>
     <t xml:space="preserve">shield since 1964</t>
   </si>
   <si>
-    <t xml:space="preserve">Shower to Shower</t>
-  </si>
-  <si>
     <t xml:space="preserve">sika</t>
   </si>
   <si>
     <t xml:space="preserve">simple truth</t>
   </si>
   <si>
-    <t xml:space="preserve">Simple Truth</t>
-  </si>
-  <si>
     <t xml:space="preserve">sip up</t>
   </si>
   <si>
-    <t xml:space="preserve">Sip Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sir Fruit</t>
-  </si>
-  <si>
     <t xml:space="preserve">sistema</t>
   </si>
   <si>
     <t xml:space="preserve">skin clinic</t>
   </si>
   <si>
-    <t xml:space="preserve">Skin Clinic</t>
-  </si>
-  <si>
     <t xml:space="preserve">skip (unilever)</t>
   </si>
   <si>
-    <t xml:space="preserve">Smartshake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smirnoff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO</t>
-  </si>
-  <si>
     <t xml:space="preserve">soda t</t>
   </si>
   <si>
@@ -1940,36 +2138,15 @@
     <t xml:space="preserve">soft sheen case</t>
   </si>
   <si>
-    <t xml:space="preserve">Sonke Pharmac.</t>
-  </si>
-  <si>
     <t xml:space="preserve">sorbet</t>
   </si>
   <si>
     <t xml:space="preserve">soul mate</t>
   </si>
   <si>
-    <t xml:space="preserve">Spar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spar-Letta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Splush Supreme</t>
-  </si>
-  <si>
     <t xml:space="preserve">spoon fulls</t>
   </si>
   <si>
-    <t xml:space="preserve">Spring Meadow Dairy Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sta-Sof-Fro</t>
-  </si>
-  <si>
     <t xml:space="preserve">sta-soft</t>
   </si>
   <si>
@@ -1982,99 +2159,27 @@
     <t xml:space="preserve">stihl</t>
   </si>
   <si>
-    <t xml:space="preserve">Still Thirsti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Still water, it's not made in China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoney</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stork</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stylin Dredz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stylin'</t>
-  </si>
-  <si>
     <t xml:space="preserve">stylish dredz</t>
   </si>
   <si>
-    <t xml:space="preserve">Subaru</t>
-  </si>
-  <si>
     <t xml:space="preserve">sukuma</t>
   </si>
   <si>
-    <t xml:space="preserve">Sukuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sun Wild Coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sundale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunfoil</t>
-  </si>
-  <si>
     <t xml:space="preserve">sunglo</t>
   </si>
   <si>
-    <t xml:space="preserve">Sunglo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunlight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunlight Baby</t>
-  </si>
-  <si>
     <t xml:space="preserve">sunny touch</t>
   </si>
   <si>
-    <t xml:space="preserve">Sunola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunshine D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunstar</t>
-  </si>
-  <si>
     <t xml:space="preserve">supa</t>
   </si>
   <si>
-    <t xml:space="preserve">Super M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supreme foods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supreme Foods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swankie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swiss Yoghurt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tal: The professional choice</t>
-  </si>
-  <si>
     <t xml:space="preserve">tc health</t>
   </si>
   <si>
     <t xml:space="preserve">tcb</t>
   </si>
   <si>
-    <t xml:space="preserve">TCB</t>
-  </si>
-  <si>
     <t xml:space="preserve">telepoint</t>
   </si>
   <si>
@@ -2096,48 +2201,15 @@
     <t xml:space="preserve">tim jan</t>
   </si>
   <si>
-    <t xml:space="preserve">Tim Jan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tin roof</t>
-  </si>
-  <si>
     <t xml:space="preserve">tomil</t>
   </si>
   <si>
-    <t xml:space="preserve">Top Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
     <t xml:space="preserve">toyota</t>
   </si>
   <si>
-    <t xml:space="preserve">Toyota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tropika</t>
-  </si>
-  <si>
     <t xml:space="preserve">tru-chem</t>
   </si>
   <si>
-    <t xml:space="preserve">Tulip Int. Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twizza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U</t>
-  </si>
-  <si>
     <t xml:space="preserve">ubhoho</t>
   </si>
   <si>
@@ -2147,33 +2219,21 @@
     <t xml:space="preserve">ubuhle</t>
   </si>
   <si>
-    <t xml:space="preserve">Ubuhle</t>
-  </si>
-  <si>
     <t xml:space="preserve">ultra lube</t>
   </si>
   <si>
-    <t xml:space="preserve">Ultra Lube</t>
-  </si>
-  <si>
     <t xml:space="preserve">ultrra</t>
   </si>
   <si>
     <t xml:space="preserve">umgeni water</t>
   </si>
   <si>
-    <t xml:space="preserve">Umkhucului</t>
-  </si>
-  <si>
     <t xml:space="preserve">umkhucululu</t>
   </si>
   <si>
     <t xml:space="preserve">umklonyane</t>
   </si>
   <si>
-    <t xml:space="preserve">Umkucululi</t>
-  </si>
-  <si>
     <t xml:space="preserve">umshanelo</t>
   </si>
   <si>
@@ -2183,15 +2243,6 @@
     <t xml:space="preserve">umvusi wabantu herbs</t>
   </si>
   <si>
-    <t xml:space="preserve">UnID Medical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UnID Oils</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UnID Water</t>
-  </si>
-  <si>
     <t xml:space="preserve">unilever comfort</t>
   </si>
   <si>
@@ -2201,15 +2252,9 @@
     <t xml:space="preserve">usn</t>
   </si>
   <si>
-    <t xml:space="preserve">Valpré Spring Water</t>
-  </si>
-  <si>
     <t xml:space="preserve">valvoline</t>
   </si>
   <si>
-    <t xml:space="preserve">Vaseline</t>
-  </si>
-  <si>
     <t xml:space="preserve">veerox</t>
   </si>
   <si>
@@ -2225,27 +2270,15 @@
     <t xml:space="preserve">vick's</t>
   </si>
   <si>
-    <t xml:space="preserve">Viking</t>
-  </si>
-  <si>
     <t xml:space="preserve">vita-gard</t>
   </si>
   <si>
-    <t xml:space="preserve">Vitaforce</t>
-  </si>
-  <si>
     <t xml:space="preserve">vitasure</t>
   </si>
   <si>
     <t xml:space="preserve">vivilite</t>
   </si>
   <si>
-    <t xml:space="preserve">Vix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volutrip</t>
-  </si>
-  <si>
     <t xml:space="preserve">waterberg</t>
   </si>
   <si>
@@ -2255,52 +2288,19 @@
     <t xml:space="preserve">wc ente</t>
   </si>
   <si>
-    <t xml:space="preserve">WC Ente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We are AQUA</t>
-  </si>
-  <si>
     <t xml:space="preserve">wellington's</t>
   </si>
   <si>
     <t xml:space="preserve">wellvita</t>
   </si>
   <si>
-    <t xml:space="preserve">White gold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White Gold</t>
-  </si>
-  <si>
     <t xml:space="preserve">wild island</t>
   </si>
   <si>
-    <t xml:space="preserve">Wild Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wimpy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wokali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Woolworths Food</t>
-  </si>
-  <si>
     <t xml:space="preserve">würth</t>
   </si>
   <si>
     <t xml:space="preserve">yardley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yogi Sip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yum Fun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YUM YUM</t>
   </si>
   <si>
     <t xml:space="preserve">zandu</t>
@@ -2672,7 +2672,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C4"/>
     </row>
@@ -2789,7 +2789,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C17"/>
     </row>
@@ -2807,7 +2807,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19"/>
     </row>
@@ -2834,7 +2834,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C22"/>
     </row>
@@ -2852,7 +2852,7 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24"/>
     </row>
@@ -2924,7 +2924,7 @@
         <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32"/>
     </row>
@@ -2933,7 +2933,7 @@
         <v>34</v>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C33"/>
     </row>
@@ -2969,7 +2969,7 @@
         <v>38</v>
       </c>
       <c r="B37" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C37"/>
     </row>
@@ -2978,7 +2978,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C38"/>
     </row>
@@ -2987,7 +2987,7 @@
         <v>40</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39"/>
     </row>
@@ -3005,7 +3005,7 @@
         <v>42</v>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C41"/>
     </row>
@@ -3014,7 +3014,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C42"/>
     </row>
@@ -3050,7 +3050,7 @@
         <v>47</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C46"/>
     </row>
@@ -3059,7 +3059,7 @@
         <v>48</v>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C47"/>
     </row>
@@ -3068,7 +3068,7 @@
         <v>49</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C48"/>
     </row>
@@ -3077,7 +3077,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C49"/>
     </row>
@@ -3095,7 +3095,7 @@
         <v>52</v>
       </c>
       <c r="B51" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C51"/>
     </row>
@@ -3104,7 +3104,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C52"/>
     </row>
@@ -3113,7 +3113,7 @@
         <v>54</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C53"/>
     </row>
@@ -3122,7 +3122,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C54"/>
     </row>
@@ -3131,7 +3131,7 @@
         <v>56</v>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C55"/>
     </row>
@@ -3140,7 +3140,7 @@
         <v>57</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C56"/>
     </row>
@@ -3158,7 +3158,7 @@
         <v>59</v>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C58"/>
     </row>
@@ -3167,7 +3167,7 @@
         <v>60</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C59"/>
     </row>
@@ -3185,7 +3185,7 @@
         <v>62</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C61"/>
     </row>
@@ -3194,7 +3194,7 @@
         <v>63</v>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C62"/>
     </row>
@@ -3221,7 +3221,7 @@
         <v>66</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C65"/>
     </row>
@@ -3230,7 +3230,7 @@
         <v>67</v>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C66"/>
     </row>
@@ -3257,7 +3257,7 @@
         <v>70</v>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C69"/>
     </row>
@@ -3275,7 +3275,7 @@
         <v>72</v>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C71"/>
     </row>
@@ -3293,7 +3293,7 @@
         <v>74</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C73"/>
     </row>
@@ -3302,7 +3302,7 @@
         <v>75</v>
       </c>
       <c r="B74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C74"/>
     </row>
@@ -3311,7 +3311,7 @@
         <v>76</v>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C75"/>
     </row>
@@ -3320,7 +3320,7 @@
         <v>77</v>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76"/>
     </row>
@@ -3329,7 +3329,7 @@
         <v>78</v>
       </c>
       <c r="B77" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C77"/>
     </row>
@@ -3347,7 +3347,7 @@
         <v>80</v>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C79"/>
     </row>
@@ -3365,7 +3365,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C81"/>
     </row>
@@ -3374,7 +3374,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C82"/>
     </row>
@@ -3383,7 +3383,7 @@
         <v>84</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C83"/>
     </row>
@@ -3392,7 +3392,7 @@
         <v>85</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C84"/>
     </row>
@@ -3401,7 +3401,7 @@
         <v>86</v>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C85"/>
     </row>
@@ -3410,7 +3410,7 @@
         <v>87</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C86"/>
     </row>
@@ -3464,7 +3464,7 @@
         <v>93</v>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C92"/>
     </row>
@@ -3473,7 +3473,7 @@
         <v>94</v>
       </c>
       <c r="B93" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C93"/>
     </row>
@@ -3491,7 +3491,7 @@
         <v>96</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C95"/>
     </row>
@@ -3509,7 +3509,7 @@
         <v>98</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C97"/>
     </row>
@@ -3518,7 +3518,7 @@
         <v>99</v>
       </c>
       <c r="B98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98"/>
     </row>
@@ -3527,7 +3527,7 @@
         <v>100</v>
       </c>
       <c r="B99" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C99"/>
     </row>
@@ -3536,7 +3536,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C100"/>
     </row>
@@ -3545,7 +3545,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101"/>
     </row>
@@ -3554,7 +3554,7 @@
         <v>103</v>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C102"/>
     </row>
@@ -3572,7 +3572,7 @@
         <v>105</v>
       </c>
       <c r="B104" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C104"/>
     </row>
@@ -3581,7 +3581,7 @@
         <v>106</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C105"/>
     </row>
@@ -3590,7 +3590,7 @@
         <v>107</v>
       </c>
       <c r="B106" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C106"/>
     </row>
@@ -3626,7 +3626,7 @@
         <v>111</v>
       </c>
       <c r="B110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C110"/>
     </row>
@@ -3635,7 +3635,7 @@
         <v>112</v>
       </c>
       <c r="B111" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C111"/>
     </row>
@@ -3653,7 +3653,7 @@
         <v>114</v>
       </c>
       <c r="B113" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C113"/>
     </row>
@@ -3689,7 +3689,7 @@
         <v>118</v>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C117"/>
     </row>
@@ -3698,7 +3698,7 @@
         <v>119</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C118"/>
     </row>
@@ -3707,7 +3707,7 @@
         <v>120</v>
       </c>
       <c r="B119" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C119"/>
     </row>
@@ -3716,7 +3716,7 @@
         <v>121</v>
       </c>
       <c r="B120" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C120"/>
     </row>
@@ -3734,7 +3734,7 @@
         <v>123</v>
       </c>
       <c r="B122" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C122"/>
     </row>
@@ -3770,7 +3770,7 @@
         <v>127</v>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C126"/>
     </row>
@@ -3779,7 +3779,7 @@
         <v>128</v>
       </c>
       <c r="B127" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C127"/>
     </row>
@@ -3797,7 +3797,7 @@
         <v>130</v>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C129"/>
     </row>
@@ -3824,7 +3824,7 @@
         <v>133</v>
       </c>
       <c r="B132" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C132"/>
     </row>
@@ -3842,7 +3842,7 @@
         <v>135</v>
       </c>
       <c r="B134" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C134"/>
     </row>
@@ -3851,7 +3851,7 @@
         <v>136</v>
       </c>
       <c r="B135" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C135"/>
     </row>
@@ -3860,7 +3860,7 @@
         <v>137</v>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C136"/>
     </row>
@@ -3878,7 +3878,7 @@
         <v>139</v>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138"/>
     </row>
@@ -3905,7 +3905,7 @@
         <v>142</v>
       </c>
       <c r="B141" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C141"/>
     </row>
@@ -3932,7 +3932,7 @@
         <v>145</v>
       </c>
       <c r="B144" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C144"/>
     </row>
@@ -3941,7 +3941,7 @@
         <v>146</v>
       </c>
       <c r="B145" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C145"/>
     </row>
@@ -3950,7 +3950,7 @@
         <v>147</v>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C146"/>
     </row>
@@ -3986,7 +3986,7 @@
         <v>151</v>
       </c>
       <c r="B150" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C150"/>
     </row>
@@ -3995,7 +3995,7 @@
         <v>152</v>
       </c>
       <c r="B151" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C151"/>
     </row>
@@ -4031,7 +4031,7 @@
         <v>156</v>
       </c>
       <c r="B155" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C155"/>
     </row>
@@ -4049,7 +4049,7 @@
         <v>158</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C157"/>
     </row>
@@ -4067,7 +4067,7 @@
         <v>160</v>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C159"/>
     </row>
@@ -4076,7 +4076,7 @@
         <v>161</v>
       </c>
       <c r="B160" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C160"/>
     </row>
@@ -4085,7 +4085,7 @@
         <v>162</v>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C161"/>
     </row>
@@ -4094,7 +4094,7 @@
         <v>163</v>
       </c>
       <c r="B162" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C162"/>
     </row>
@@ -4112,7 +4112,7 @@
         <v>165</v>
       </c>
       <c r="B164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C164"/>
     </row>
@@ -4121,7 +4121,7 @@
         <v>166</v>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C165"/>
     </row>
@@ -4130,7 +4130,7 @@
         <v>167</v>
       </c>
       <c r="B166" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C166"/>
     </row>
@@ -4139,7 +4139,7 @@
         <v>168</v>
       </c>
       <c r="B167" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C167"/>
     </row>
@@ -4166,7 +4166,7 @@
         <v>171</v>
       </c>
       <c r="B170" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C170"/>
     </row>
@@ -4184,7 +4184,7 @@
         <v>173</v>
       </c>
       <c r="B172" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C172"/>
     </row>
@@ -4193,7 +4193,7 @@
         <v>174</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C173"/>
     </row>
@@ -4202,7 +4202,7 @@
         <v>175</v>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C174"/>
     </row>
@@ -4211,7 +4211,7 @@
         <v>176</v>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C175"/>
     </row>
@@ -4220,7 +4220,7 @@
         <v>177</v>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C176"/>
     </row>
@@ -4229,7 +4229,7 @@
         <v>178</v>
       </c>
       <c r="B177" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C177"/>
     </row>
@@ -4247,7 +4247,7 @@
         <v>180</v>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C179"/>
     </row>
@@ -4256,7 +4256,7 @@
         <v>181</v>
       </c>
       <c r="B180" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C180"/>
     </row>
@@ -4265,7 +4265,7 @@
         <v>182</v>
       </c>
       <c r="B181" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C181"/>
     </row>
@@ -4283,7 +4283,7 @@
         <v>184</v>
       </c>
       <c r="B183" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C183"/>
     </row>
@@ -4301,7 +4301,7 @@
         <v>186</v>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C185"/>
     </row>
@@ -4319,7 +4319,7 @@
         <v>188</v>
       </c>
       <c r="B187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C187"/>
     </row>
@@ -4337,7 +4337,7 @@
         <v>190</v>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C189"/>
     </row>
@@ -4346,7 +4346,7 @@
         <v>191</v>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C190"/>
     </row>
@@ -4373,7 +4373,7 @@
         <v>194</v>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C193"/>
     </row>
@@ -4391,7 +4391,7 @@
         <v>196</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C195"/>
     </row>
@@ -4400,7 +4400,7 @@
         <v>197</v>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C196"/>
     </row>
@@ -4409,7 +4409,7 @@
         <v>198</v>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C197"/>
     </row>
@@ -4427,7 +4427,7 @@
         <v>200</v>
       </c>
       <c r="B199" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C199"/>
     </row>
@@ -4436,7 +4436,7 @@
         <v>201</v>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C200"/>
     </row>
@@ -4454,7 +4454,7 @@
         <v>203</v>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C202"/>
     </row>
@@ -4463,7 +4463,7 @@
         <v>204</v>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C203"/>
     </row>
@@ -4472,7 +4472,7 @@
         <v>205</v>
       </c>
       <c r="B204" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C204"/>
     </row>
@@ -4481,7 +4481,7 @@
         <v>206</v>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C205"/>
     </row>
@@ -4490,7 +4490,7 @@
         <v>207</v>
       </c>
       <c r="B206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C206"/>
     </row>
@@ -4526,7 +4526,7 @@
         <v>211</v>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C210"/>
     </row>
@@ -4535,7 +4535,7 @@
         <v>212</v>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C211"/>
     </row>
@@ -4544,7 +4544,7 @@
         <v>213</v>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C212"/>
     </row>
@@ -4580,7 +4580,7 @@
         <v>217</v>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C216"/>
     </row>
@@ -4598,7 +4598,7 @@
         <v>219</v>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C218"/>
     </row>
@@ -4616,7 +4616,7 @@
         <v>221</v>
       </c>
       <c r="B220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C220"/>
     </row>
@@ -4634,7 +4634,7 @@
         <v>223</v>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C222"/>
     </row>
@@ -4652,7 +4652,7 @@
         <v>225</v>
       </c>
       <c r="B224" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C224"/>
     </row>
@@ -4661,7 +4661,7 @@
         <v>226</v>
       </c>
       <c r="B225" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C225"/>
     </row>
@@ -4670,7 +4670,7 @@
         <v>227</v>
       </c>
       <c r="B226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C226"/>
     </row>
@@ -4688,7 +4688,7 @@
         <v>229</v>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C228"/>
     </row>
@@ -4706,7 +4706,7 @@
         <v>231</v>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C230"/>
     </row>
@@ -4715,7 +4715,7 @@
         <v>232</v>
       </c>
       <c r="B231" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C231"/>
     </row>
@@ -4751,7 +4751,7 @@
         <v>236</v>
       </c>
       <c r="B235" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C235"/>
     </row>
@@ -4760,7 +4760,7 @@
         <v>237</v>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C236"/>
     </row>
@@ -4769,7 +4769,7 @@
         <v>238</v>
       </c>
       <c r="B237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C237"/>
     </row>
@@ -4805,7 +4805,7 @@
         <v>242</v>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C241"/>
     </row>
@@ -4823,7 +4823,7 @@
         <v>244</v>
       </c>
       <c r="B243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C243"/>
     </row>
@@ -4832,7 +4832,7 @@
         <v>245</v>
       </c>
       <c r="B244" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C244"/>
     </row>
@@ -4841,7 +4841,7 @@
         <v>246</v>
       </c>
       <c r="B245" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C245"/>
     </row>
@@ -4850,7 +4850,7 @@
         <v>247</v>
       </c>
       <c r="B246" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C246"/>
     </row>
@@ -4877,7 +4877,7 @@
         <v>250</v>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C249"/>
     </row>
@@ -4895,7 +4895,7 @@
         <v>252</v>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C251"/>
     </row>
@@ -4904,7 +4904,7 @@
         <v>253</v>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C252"/>
     </row>
@@ -4940,7 +4940,7 @@
         <v>257</v>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C256"/>
     </row>
@@ -4949,7 +4949,7 @@
         <v>258</v>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C257"/>
     </row>
@@ -4958,7 +4958,7 @@
         <v>259</v>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C258"/>
     </row>
@@ -4994,7 +4994,7 @@
         <v>263</v>
       </c>
       <c r="B262" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C262"/>
     </row>
@@ -5003,7 +5003,7 @@
         <v>264</v>
       </c>
       <c r="B263" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C263"/>
     </row>
@@ -5021,7 +5021,7 @@
         <v>266</v>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C265"/>
     </row>
@@ -5030,7 +5030,7 @@
         <v>267</v>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C266"/>
     </row>
@@ -5039,7 +5039,7 @@
         <v>268</v>
       </c>
       <c r="B267" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C267"/>
     </row>
@@ -5048,7 +5048,7 @@
         <v>269</v>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C268"/>
     </row>
@@ -5066,7 +5066,7 @@
         <v>271</v>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C270"/>
     </row>
@@ -5075,7 +5075,7 @@
         <v>272</v>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C271"/>
     </row>
@@ -5093,7 +5093,7 @@
         <v>274</v>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C273"/>
     </row>
@@ -5138,7 +5138,7 @@
         <v>279</v>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C278"/>
     </row>
@@ -5156,7 +5156,7 @@
         <v>281</v>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C280"/>
     </row>
@@ -5165,7 +5165,7 @@
         <v>282</v>
       </c>
       <c r="B281" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C281"/>
     </row>
@@ -5183,7 +5183,7 @@
         <v>284</v>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C283"/>
     </row>
@@ -5192,7 +5192,7 @@
         <v>285</v>
       </c>
       <c r="B284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C284"/>
     </row>
@@ -5201,7 +5201,7 @@
         <v>286</v>
       </c>
       <c r="B285" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C285"/>
     </row>
@@ -5219,7 +5219,7 @@
         <v>288</v>
       </c>
       <c r="B287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C287"/>
     </row>
@@ -5273,7 +5273,7 @@
         <v>294</v>
       </c>
       <c r="B293" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C293"/>
     </row>
@@ -5291,7 +5291,7 @@
         <v>296</v>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C295"/>
     </row>
@@ -5318,7 +5318,7 @@
         <v>299</v>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C298"/>
     </row>
@@ -5327,7 +5327,7 @@
         <v>300</v>
       </c>
       <c r="B299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C299"/>
     </row>
@@ -5336,7 +5336,7 @@
         <v>301</v>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C300"/>
     </row>
@@ -5363,7 +5363,7 @@
         <v>304</v>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C303"/>
     </row>
@@ -5399,7 +5399,7 @@
         <v>308</v>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C307"/>
     </row>
@@ -5408,7 +5408,7 @@
         <v>309</v>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C308"/>
     </row>
@@ -5417,7 +5417,7 @@
         <v>310</v>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C309"/>
     </row>
@@ -5426,7 +5426,7 @@
         <v>311</v>
       </c>
       <c r="B310" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C310"/>
     </row>
@@ -5435,7 +5435,7 @@
         <v>312</v>
       </c>
       <c r="B311" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C311"/>
     </row>
@@ -5516,7 +5516,7 @@
         <v>321</v>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C320"/>
     </row>
@@ -5525,7 +5525,7 @@
         <v>322</v>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C321"/>
     </row>
@@ -5543,7 +5543,7 @@
         <v>324</v>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C323"/>
     </row>
@@ -5552,7 +5552,7 @@
         <v>325</v>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C324"/>
     </row>
@@ -5561,7 +5561,7 @@
         <v>326</v>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C325"/>
     </row>
@@ -5588,7 +5588,7 @@
         <v>329</v>
       </c>
       <c r="B328" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C328"/>
     </row>
@@ -5597,7 +5597,7 @@
         <v>330</v>
       </c>
       <c r="B329" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C329"/>
     </row>
@@ -5606,7 +5606,7 @@
         <v>331</v>
       </c>
       <c r="B330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C330"/>
     </row>
@@ -5615,7 +5615,7 @@
         <v>332</v>
       </c>
       <c r="B331" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C331"/>
     </row>
@@ -5651,7 +5651,7 @@
         <v>336</v>
       </c>
       <c r="B335" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C335"/>
     </row>
@@ -5696,7 +5696,7 @@
         <v>341</v>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C340"/>
     </row>
@@ -5723,7 +5723,7 @@
         <v>344</v>
       </c>
       <c r="B343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C343"/>
     </row>
@@ -5750,7 +5750,7 @@
         <v>347</v>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C346"/>
     </row>
@@ -5759,7 +5759,7 @@
         <v>348</v>
       </c>
       <c r="B347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C347"/>
     </row>
@@ -5822,7 +5822,7 @@
         <v>355</v>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C354"/>
     </row>
@@ -5867,7 +5867,7 @@
         <v>360</v>
       </c>
       <c r="B359" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C359"/>
     </row>
@@ -5885,7 +5885,7 @@
         <v>362</v>
       </c>
       <c r="B361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C361"/>
     </row>
@@ -5903,7 +5903,7 @@
         <v>364</v>
       </c>
       <c r="B363" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C363"/>
     </row>
@@ -5921,7 +5921,7 @@
         <v>366</v>
       </c>
       <c r="B365" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C365"/>
     </row>
@@ -5948,7 +5948,7 @@
         <v>369</v>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C368"/>
     </row>
@@ -5957,7 +5957,7 @@
         <v>370</v>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C369"/>
     </row>
@@ -5966,7 +5966,7 @@
         <v>371</v>
       </c>
       <c r="B370" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C370"/>
     </row>
@@ -5984,7 +5984,7 @@
         <v>373</v>
       </c>
       <c r="B372" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C372"/>
     </row>
@@ -5993,7 +5993,7 @@
         <v>374</v>
       </c>
       <c r="B373" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C373"/>
     </row>
@@ -6029,7 +6029,7 @@
         <v>378</v>
       </c>
       <c r="B377" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C377"/>
     </row>
@@ -6047,7 +6047,7 @@
         <v>380</v>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C379"/>
     </row>
@@ -6074,7 +6074,7 @@
         <v>383</v>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C382"/>
     </row>
@@ -6092,7 +6092,7 @@
         <v>385</v>
       </c>
       <c r="B384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C384"/>
     </row>
@@ -6110,7 +6110,7 @@
         <v>387</v>
       </c>
       <c r="B386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C386"/>
     </row>
@@ -6137,7 +6137,7 @@
         <v>390</v>
       </c>
       <c r="B389" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C389"/>
     </row>
@@ -6155,7 +6155,7 @@
         <v>392</v>
       </c>
       <c r="B391" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C391"/>
     </row>
@@ -6200,7 +6200,7 @@
         <v>397</v>
       </c>
       <c r="B396" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C396"/>
     </row>
@@ -6209,7 +6209,7 @@
         <v>398</v>
       </c>
       <c r="B397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C397"/>
     </row>
@@ -6263,7 +6263,7 @@
         <v>404</v>
       </c>
       <c r="B403" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C403"/>
     </row>
@@ -6272,7 +6272,7 @@
         <v>405</v>
       </c>
       <c r="B404" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C404"/>
     </row>
@@ -6299,7 +6299,7 @@
         <v>408</v>
       </c>
       <c r="B407" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C407"/>
     </row>
@@ -6326,7 +6326,7 @@
         <v>411</v>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C410"/>
     </row>
@@ -6362,7 +6362,7 @@
         <v>415</v>
       </c>
       <c r="B414" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C414"/>
     </row>
@@ -6371,7 +6371,7 @@
         <v>416</v>
       </c>
       <c r="B415" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C415"/>
     </row>
@@ -6380,7 +6380,7 @@
         <v>417</v>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C416"/>
     </row>
@@ -6398,7 +6398,7 @@
         <v>419</v>
       </c>
       <c r="B418" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C418"/>
     </row>
@@ -6443,7 +6443,7 @@
         <v>424</v>
       </c>
       <c r="B423" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C423"/>
     </row>
@@ -6488,7 +6488,7 @@
         <v>429</v>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C428"/>
     </row>
@@ -6497,7 +6497,7 @@
         <v>430</v>
       </c>
       <c r="B429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C429"/>
     </row>
@@ -6515,7 +6515,7 @@
         <v>432</v>
       </c>
       <c r="B431" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C431"/>
     </row>
@@ -6533,7 +6533,7 @@
         <v>434</v>
       </c>
       <c r="B433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C433"/>
     </row>
@@ -6551,7 +6551,7 @@
         <v>436</v>
       </c>
       <c r="B435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C435"/>
     </row>
@@ -6605,7 +6605,7 @@
         <v>442</v>
       </c>
       <c r="B441" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C441"/>
     </row>
@@ -6614,7 +6614,7 @@
         <v>443</v>
       </c>
       <c r="B442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C442"/>
     </row>
@@ -6623,7 +6623,7 @@
         <v>444</v>
       </c>
       <c r="B443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C443"/>
     </row>
@@ -6632,7 +6632,7 @@
         <v>445</v>
       </c>
       <c r="B444" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C444"/>
     </row>
@@ -6686,7 +6686,7 @@
         <v>451</v>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C450"/>
     </row>
@@ -6722,7 +6722,7 @@
         <v>455</v>
       </c>
       <c r="B454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C454"/>
     </row>
@@ -6740,7 +6740,7 @@
         <v>457</v>
       </c>
       <c r="B456" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C456"/>
     </row>
@@ -6767,7 +6767,7 @@
         <v>460</v>
       </c>
       <c r="B459" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C459"/>
     </row>
@@ -6794,7 +6794,7 @@
         <v>463</v>
       </c>
       <c r="B462" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C462"/>
     </row>
@@ -6821,7 +6821,7 @@
         <v>466</v>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C465"/>
     </row>
@@ -6830,7 +6830,7 @@
         <v>467</v>
       </c>
       <c r="B466" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C466"/>
     </row>
@@ -6857,7 +6857,7 @@
         <v>470</v>
       </c>
       <c r="B469" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C469"/>
     </row>
@@ -6866,7 +6866,7 @@
         <v>471</v>
       </c>
       <c r="B470" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C470"/>
     </row>
@@ -6875,7 +6875,7 @@
         <v>472</v>
       </c>
       <c r="B471" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C471"/>
     </row>
@@ -6884,7 +6884,7 @@
         <v>473</v>
       </c>
       <c r="B472" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C472"/>
     </row>
@@ -6929,7 +6929,7 @@
         <v>478</v>
       </c>
       <c r="B477" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C477"/>
     </row>
@@ -6947,7 +6947,7 @@
         <v>480</v>
       </c>
       <c r="B479" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C479"/>
     </row>
@@ -6965,7 +6965,7 @@
         <v>482</v>
       </c>
       <c r="B481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C481"/>
     </row>
@@ -6974,7 +6974,7 @@
         <v>483</v>
       </c>
       <c r="B482" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C482"/>
     </row>
@@ -7001,7 +7001,7 @@
         <v>486</v>
       </c>
       <c r="B485" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C485"/>
     </row>
@@ -7028,7 +7028,7 @@
         <v>489</v>
       </c>
       <c r="B488" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C488"/>
     </row>
@@ -7037,7 +7037,7 @@
         <v>490</v>
       </c>
       <c r="B489" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C489"/>
     </row>
@@ -7064,7 +7064,7 @@
         <v>493</v>
       </c>
       <c r="B492" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C492"/>
     </row>
@@ -7082,7 +7082,7 @@
         <v>495</v>
       </c>
       <c r="B494" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C494"/>
     </row>
@@ -7091,7 +7091,7 @@
         <v>496</v>
       </c>
       <c r="B495" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C495"/>
     </row>
@@ -7100,7 +7100,7 @@
         <v>497</v>
       </c>
       <c r="B496" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C496"/>
     </row>
@@ -7154,7 +7154,7 @@
         <v>503</v>
       </c>
       <c r="B502" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C502"/>
     </row>
@@ -7163,7 +7163,7 @@
         <v>504</v>
       </c>
       <c r="B503" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C503"/>
     </row>
@@ -7172,7 +7172,7 @@
         <v>505</v>
       </c>
       <c r="B504" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C504"/>
     </row>
@@ -7181,7 +7181,7 @@
         <v>506</v>
       </c>
       <c r="B505" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C505"/>
     </row>
@@ -7190,7 +7190,7 @@
         <v>507</v>
       </c>
       <c r="B506" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C506"/>
     </row>
@@ -7226,7 +7226,7 @@
         <v>511</v>
       </c>
       <c r="B510" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C510"/>
     </row>
@@ -7235,7 +7235,7 @@
         <v>512</v>
       </c>
       <c r="B511" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C511"/>
     </row>
@@ -7244,7 +7244,7 @@
         <v>513</v>
       </c>
       <c r="B512" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C512"/>
     </row>
@@ -7289,7 +7289,7 @@
         <v>518</v>
       </c>
       <c r="B517" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C517"/>
     </row>
@@ -7298,7 +7298,7 @@
         <v>519</v>
       </c>
       <c r="B518" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C518"/>
     </row>
@@ -7316,7 +7316,7 @@
         <v>521</v>
       </c>
       <c r="B520" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C520"/>
     </row>
@@ -7325,7 +7325,7 @@
         <v>522</v>
       </c>
       <c r="B521" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C521"/>
     </row>
@@ -7334,7 +7334,7 @@
         <v>523</v>
       </c>
       <c r="B522" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C522"/>
     </row>
@@ -7343,7 +7343,7 @@
         <v>524</v>
       </c>
       <c r="B523" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C523"/>
     </row>
@@ -7352,7 +7352,7 @@
         <v>525</v>
       </c>
       <c r="B524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C524"/>
     </row>
@@ -7379,7 +7379,7 @@
         <v>528</v>
       </c>
       <c r="B527" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C527"/>
     </row>
@@ -7388,7 +7388,7 @@
         <v>529</v>
       </c>
       <c r="B528" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C528"/>
     </row>
@@ -7406,7 +7406,7 @@
         <v>531</v>
       </c>
       <c r="B530" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C530"/>
     </row>
@@ -7415,7 +7415,7 @@
         <v>532</v>
       </c>
       <c r="B531" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C531"/>
     </row>
@@ -7442,7 +7442,7 @@
         <v>535</v>
       </c>
       <c r="B534" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C534"/>
     </row>
@@ -7451,7 +7451,7 @@
         <v>536</v>
       </c>
       <c r="B535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C535"/>
     </row>
@@ -7532,7 +7532,7 @@
         <v>545</v>
       </c>
       <c r="B544" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C544"/>
     </row>
@@ -7541,7 +7541,7 @@
         <v>546</v>
       </c>
       <c r="B545" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C545"/>
     </row>
@@ -7568,7 +7568,7 @@
         <v>549</v>
       </c>
       <c r="B548" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C548"/>
     </row>
@@ -7577,7 +7577,7 @@
         <v>550</v>
       </c>
       <c r="B549" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C549"/>
     </row>
@@ -7613,7 +7613,7 @@
         <v>554</v>
       </c>
       <c r="B553" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C553"/>
     </row>
@@ -7622,7 +7622,7 @@
         <v>555</v>
       </c>
       <c r="B554" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C554"/>
     </row>
@@ -7640,7 +7640,7 @@
         <v>557</v>
       </c>
       <c r="B556" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C556"/>
     </row>
@@ -7649,7 +7649,7 @@
         <v>558</v>
       </c>
       <c r="B557" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C557"/>
     </row>
@@ -7658,7 +7658,7 @@
         <v>559</v>
       </c>
       <c r="B558" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C558"/>
     </row>
@@ -7676,7 +7676,7 @@
         <v>561</v>
       </c>
       <c r="B560" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C560"/>
     </row>
@@ -7685,7 +7685,7 @@
         <v>562</v>
       </c>
       <c r="B561" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C561"/>
     </row>
@@ -7721,7 +7721,7 @@
         <v>566</v>
       </c>
       <c r="B565" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C565"/>
     </row>
@@ -7730,7 +7730,7 @@
         <v>567</v>
       </c>
       <c r="B566" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C566"/>
     </row>
@@ -7775,7 +7775,7 @@
         <v>572</v>
       </c>
       <c r="B571" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C571"/>
     </row>
@@ -7838,7 +7838,7 @@
         <v>579</v>
       </c>
       <c r="B578" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C578"/>
     </row>
@@ -7847,7 +7847,7 @@
         <v>580</v>
       </c>
       <c r="B579" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C579"/>
     </row>
@@ -7883,7 +7883,7 @@
         <v>584</v>
       </c>
       <c r="B583" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C583"/>
     </row>
@@ -7901,7 +7901,7 @@
         <v>586</v>
       </c>
       <c r="B585" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C585"/>
     </row>
@@ -7928,7 +7928,7 @@
         <v>589</v>
       </c>
       <c r="B588" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C588"/>
     </row>
@@ -7946,7 +7946,7 @@
         <v>591</v>
       </c>
       <c r="B590" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C590"/>
     </row>
@@ -7955,7 +7955,7 @@
         <v>592</v>
       </c>
       <c r="B591" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C591"/>
     </row>
@@ -8027,7 +8027,7 @@
         <v>600</v>
       </c>
       <c r="B599" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C599"/>
     </row>
@@ -8036,7 +8036,7 @@
         <v>601</v>
       </c>
       <c r="B600" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C600"/>
     </row>
@@ -8045,7 +8045,7 @@
         <v>602</v>
       </c>
       <c r="B601" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C601"/>
     </row>
@@ -8135,7 +8135,7 @@
         <v>612</v>
       </c>
       <c r="B611" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C611"/>
     </row>
@@ -8171,7 +8171,7 @@
         <v>616</v>
       </c>
       <c r="B615" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C615"/>
     </row>
@@ -8207,7 +8207,7 @@
         <v>620</v>
       </c>
       <c r="B619" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C619"/>
     </row>
@@ -8216,7 +8216,7 @@
         <v>621</v>
       </c>
       <c r="B620" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C620"/>
     </row>
@@ -8225,7 +8225,7 @@
         <v>622</v>
       </c>
       <c r="B621" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C621"/>
     </row>
@@ -8243,7 +8243,7 @@
         <v>624</v>
       </c>
       <c r="B623" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C623"/>
     </row>
@@ -8252,7 +8252,7 @@
         <v>625</v>
       </c>
       <c r="B624" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C624"/>
     </row>
@@ -8270,7 +8270,7 @@
         <v>627</v>
       </c>
       <c r="B626" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C626"/>
     </row>
@@ -8279,7 +8279,7 @@
         <v>628</v>
       </c>
       <c r="B627" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C627"/>
     </row>
@@ -8288,7 +8288,7 @@
         <v>629</v>
       </c>
       <c r="B628" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C628"/>
     </row>
@@ -8297,7 +8297,7 @@
         <v>630</v>
       </c>
       <c r="B629" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C629"/>
     </row>
@@ -8324,7 +8324,7 @@
         <v>633</v>
       </c>
       <c r="B632" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C632"/>
     </row>
@@ -8351,7 +8351,7 @@
         <v>636</v>
       </c>
       <c r="B635" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C635"/>
     </row>
@@ -8360,7 +8360,7 @@
         <v>637</v>
       </c>
       <c r="B636" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C636"/>
     </row>
@@ -8378,7 +8378,7 @@
         <v>639</v>
       </c>
       <c r="B638" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C638"/>
     </row>
@@ -8387,7 +8387,7 @@
         <v>640</v>
       </c>
       <c r="B639" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C639"/>
     </row>
@@ -8414,7 +8414,7 @@
         <v>643</v>
       </c>
       <c r="B642" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C642"/>
     </row>
@@ -8432,7 +8432,7 @@
         <v>645</v>
       </c>
       <c r="B644" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C644"/>
     </row>
@@ -8441,7 +8441,7 @@
         <v>646</v>
       </c>
       <c r="B645" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C645"/>
     </row>
@@ -8468,7 +8468,7 @@
         <v>649</v>
       </c>
       <c r="B648" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C648"/>
     </row>
@@ -8477,7 +8477,7 @@
         <v>650</v>
       </c>
       <c r="B649" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C649"/>
     </row>
@@ -8486,7 +8486,7 @@
         <v>651</v>
       </c>
       <c r="B650" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C650"/>
     </row>
@@ -8495,7 +8495,7 @@
         <v>652</v>
       </c>
       <c r="B651" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C651"/>
     </row>
@@ -8504,7 +8504,7 @@
         <v>653</v>
       </c>
       <c r="B652" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C652"/>
     </row>
@@ -8522,7 +8522,7 @@
         <v>655</v>
       </c>
       <c r="B654" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C654"/>
     </row>
@@ -8531,7 +8531,7 @@
         <v>656</v>
       </c>
       <c r="B655" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C655"/>
     </row>
@@ -8540,7 +8540,7 @@
         <v>657</v>
       </c>
       <c r="B656" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C656"/>
     </row>
@@ -8549,7 +8549,7 @@
         <v>658</v>
       </c>
       <c r="B657" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C657"/>
     </row>
@@ -8558,7 +8558,7 @@
         <v>659</v>
       </c>
       <c r="B658" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C658"/>
     </row>
@@ -8576,7 +8576,7 @@
         <v>661</v>
       </c>
       <c r="B660" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C660"/>
     </row>
@@ -8585,7 +8585,7 @@
         <v>662</v>
       </c>
       <c r="B661" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C661"/>
     </row>
@@ -8630,7 +8630,7 @@
         <v>667</v>
       </c>
       <c r="B666" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C666"/>
     </row>
@@ -8639,7 +8639,7 @@
         <v>668</v>
       </c>
       <c r="B667" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C667"/>
     </row>
@@ -8666,7 +8666,7 @@
         <v>671</v>
       </c>
       <c r="B670" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C670"/>
     </row>
@@ -8675,7 +8675,7 @@
         <v>672</v>
       </c>
       <c r="B671" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C671"/>
     </row>
@@ -8693,7 +8693,7 @@
         <v>674</v>
       </c>
       <c r="B673" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C673"/>
     </row>
@@ -8702,7 +8702,7 @@
         <v>675</v>
       </c>
       <c r="B674" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C674"/>
     </row>
@@ -8711,7 +8711,7 @@
         <v>676</v>
       </c>
       <c r="B675" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C675"/>
     </row>
@@ -8720,7 +8720,7 @@
         <v>677</v>
       </c>
       <c r="B676" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C676"/>
     </row>
@@ -8729,7 +8729,7 @@
         <v>678</v>
       </c>
       <c r="B677" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C677"/>
     </row>
@@ -8765,7 +8765,7 @@
         <v>682</v>
       </c>
       <c r="B681" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C681"/>
     </row>
@@ -8783,7 +8783,7 @@
         <v>684</v>
       </c>
       <c r="B683" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C683"/>
     </row>
@@ -8810,7 +8810,7 @@
         <v>687</v>
       </c>
       <c r="B686" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C686"/>
     </row>
@@ -8891,7 +8891,7 @@
         <v>696</v>
       </c>
       <c r="B695" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C695"/>
     </row>
@@ -8900,7 +8900,7 @@
         <v>697</v>
       </c>
       <c r="B696" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C696"/>
     </row>
@@ -8909,7 +8909,7 @@
         <v>698</v>
       </c>
       <c r="B697" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C697"/>
     </row>
@@ -8918,7 +8918,7 @@
         <v>699</v>
       </c>
       <c r="B698" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C698"/>
     </row>
@@ -8936,7 +8936,7 @@
         <v>701</v>
       </c>
       <c r="B700" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C700"/>
     </row>
@@ -8972,7 +8972,7 @@
         <v>705</v>
       </c>
       <c r="B704" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C704"/>
     </row>
@@ -8981,7 +8981,7 @@
         <v>706</v>
       </c>
       <c r="B705" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C705"/>
     </row>
@@ -9053,7 +9053,7 @@
         <v>714</v>
       </c>
       <c r="B713" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C713"/>
     </row>
@@ -9125,7 +9125,7 @@
         <v>722</v>
       </c>
       <c r="B721" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C721"/>
     </row>
@@ -9134,7 +9134,7 @@
         <v>723</v>
       </c>
       <c r="B722" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C722"/>
     </row>
@@ -9143,7 +9143,7 @@
         <v>724</v>
       </c>
       <c r="B723" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C723"/>
     </row>
@@ -9152,7 +9152,7 @@
         <v>725</v>
       </c>
       <c r="B724" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C724"/>
     </row>
@@ -9188,7 +9188,7 @@
         <v>729</v>
       </c>
       <c r="B728" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C728"/>
     </row>
@@ -9197,7 +9197,7 @@
         <v>730</v>
       </c>
       <c r="B729" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C729"/>
     </row>
@@ -9206,7 +9206,7 @@
         <v>731</v>
       </c>
       <c r="B730" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C730"/>
     </row>
@@ -9224,7 +9224,7 @@
         <v>733</v>
       </c>
       <c r="B732" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C732"/>
     </row>
@@ -9251,7 +9251,7 @@
         <v>736</v>
       </c>
       <c r="B735" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C735"/>
     </row>
@@ -9314,7 +9314,7 @@
         <v>743</v>
       </c>
       <c r="B742" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C742"/>
     </row>
@@ -9341,7 +9341,7 @@
         <v>746</v>
       </c>
       <c r="B745" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C745"/>
     </row>
@@ -9359,7 +9359,7 @@
         <v>748</v>
       </c>
       <c r="B747" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C747"/>
     </row>
@@ -9368,7 +9368,7 @@
         <v>749</v>
       </c>
       <c r="B748" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C748"/>
     </row>
@@ -9386,7 +9386,7 @@
         <v>751</v>
       </c>
       <c r="B750" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C750"/>
     </row>
@@ -9404,7 +9404,7 @@
         <v>753</v>
       </c>
       <c r="B752" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C752"/>
     </row>
@@ -9413,7 +9413,7 @@
         <v>754</v>
       </c>
       <c r="B753" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C753"/>
     </row>
@@ -9422,7 +9422,7 @@
         <v>755</v>
       </c>
       <c r="B754" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C754"/>
     </row>
@@ -9440,7 +9440,7 @@
         <v>757</v>
       </c>
       <c r="B756" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C756"/>
     </row>
@@ -9449,7 +9449,7 @@
         <v>758</v>
       </c>
       <c r="B757" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C757"/>
     </row>
@@ -9467,7 +9467,7 @@
         <v>760</v>
       </c>
       <c r="B759" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C759"/>
     </row>
@@ -9485,7 +9485,7 @@
         <v>762</v>
       </c>
       <c r="B761" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C761"/>
     </row>
